--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10620,16 +10623,16 @@
         <v>11016</v>
       </c>
       <c r="N173">
-        <v>11953</v>
+        <v>12313</v>
       </c>
       <c r="O173">
-        <v>18737</v>
+        <v>18466</v>
       </c>
       <c r="P173">
-        <v>6622</v>
+        <v>6729</v>
       </c>
       <c r="Q173">
-        <v>9240</v>
+        <v>9045</v>
       </c>
       <c r="R173">
         <v>15712</v>
@@ -10673,19 +10676,19 @@
         <v>7236</v>
       </c>
       <c r="M174">
-        <v>10394</v>
+        <v>10579</v>
       </c>
       <c r="N174">
-        <v>13812</v>
+        <v>14241</v>
       </c>
       <c r="O174">
-        <v>18426</v>
+        <v>17900</v>
       </c>
       <c r="P174">
-        <v>7421</v>
+        <v>7528</v>
       </c>
       <c r="Q174">
-        <v>9247</v>
+        <v>9052</v>
       </c>
       <c r="R174">
         <v>15902</v>
@@ -10729,22 +10732,78 @@
         <v>2212</v>
       </c>
       <c r="M175">
-        <v>6532</v>
+        <v>7259</v>
       </c>
       <c r="N175">
-        <v>13809</v>
+        <v>13745</v>
       </c>
       <c r="O175">
-        <v>19145</v>
+        <v>18578</v>
       </c>
       <c r="P175">
-        <v>7707</v>
+        <v>7805</v>
       </c>
       <c r="Q175">
-        <v>8819</v>
+        <v>8624</v>
       </c>
       <c r="R175">
         <v>15955</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>-22646</v>
+      </c>
+      <c r="C176">
+        <v>-15767</v>
+      </c>
+      <c r="D176">
+        <v>19298</v>
+      </c>
+      <c r="E176">
+        <v>35065</v>
+      </c>
+      <c r="F176">
+        <v>-6879</v>
+      </c>
+      <c r="G176">
+        <v>4355</v>
+      </c>
+      <c r="H176">
+        <v>11234</v>
+      </c>
+      <c r="I176">
+        <v>69952</v>
+      </c>
+      <c r="J176">
+        <v>54363</v>
+      </c>
+      <c r="K176">
+        <v>185</v>
+      </c>
+      <c r="L176">
+        <v>763</v>
+      </c>
+      <c r="M176">
+        <v>5310</v>
+      </c>
+      <c r="N176">
+        <v>12565</v>
+      </c>
+      <c r="O176">
+        <v>18131</v>
+      </c>
+      <c r="P176">
+        <v>8964</v>
+      </c>
+      <c r="Q176">
+        <v>8446</v>
+      </c>
+      <c r="R176">
+        <v>15589</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10679,16 +10682,16 @@
         <v>10579</v>
       </c>
       <c r="N174">
-        <v>14241</v>
+        <v>15220</v>
       </c>
       <c r="O174">
-        <v>17900</v>
+        <v>17228</v>
       </c>
       <c r="P174">
-        <v>7528</v>
+        <v>7333</v>
       </c>
       <c r="Q174">
-        <v>9052</v>
+        <v>8940</v>
       </c>
       <c r="R174">
         <v>15902</v>
@@ -10732,19 +10735,19 @@
         <v>2212</v>
       </c>
       <c r="M175">
-        <v>7259</v>
+        <v>7393</v>
       </c>
       <c r="N175">
-        <v>13745</v>
+        <v>14654</v>
       </c>
       <c r="O175">
-        <v>18578</v>
+        <v>17854</v>
       </c>
       <c r="P175">
-        <v>7805</v>
+        <v>7601</v>
       </c>
       <c r="Q175">
-        <v>8624</v>
+        <v>8509</v>
       </c>
       <c r="R175">
         <v>15955</v>
@@ -10785,25 +10788,81 @@
         <v>185</v>
       </c>
       <c r="L176">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="M176">
-        <v>5310</v>
+        <v>5694</v>
       </c>
       <c r="N176">
-        <v>12565</v>
+        <v>13281</v>
       </c>
       <c r="O176">
-        <v>18131</v>
+        <v>17297</v>
       </c>
       <c r="P176">
-        <v>8964</v>
+        <v>8738</v>
       </c>
       <c r="Q176">
-        <v>8446</v>
+        <v>8331</v>
       </c>
       <c r="R176">
         <v>15589</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>-21728</v>
+      </c>
+      <c r="C177">
+        <v>-14674</v>
+      </c>
+      <c r="D177">
+        <v>18271</v>
+      </c>
+      <c r="E177">
+        <v>32945</v>
+      </c>
+      <c r="F177">
+        <v>-7054</v>
+      </c>
+      <c r="G177">
+        <v>4323</v>
+      </c>
+      <c r="H177">
+        <v>11377</v>
+      </c>
+      <c r="I177">
+        <v>66916</v>
+      </c>
+      <c r="J177">
+        <v>51216</v>
+      </c>
+      <c r="K177">
+        <v>371</v>
+      </c>
+      <c r="L177">
+        <v>2360</v>
+      </c>
+      <c r="M177">
+        <v>5337</v>
+      </c>
+      <c r="N177">
+        <v>10517</v>
+      </c>
+      <c r="O177">
+        <v>16272</v>
+      </c>
+      <c r="P177">
+        <v>8136</v>
+      </c>
+      <c r="Q177">
+        <v>8223</v>
+      </c>
+      <c r="R177">
+        <v>15700</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10738,16 +10741,16 @@
         <v>7393</v>
       </c>
       <c r="N175">
-        <v>14654</v>
+        <v>15281</v>
       </c>
       <c r="O175">
-        <v>17854</v>
+        <v>17648</v>
       </c>
       <c r="P175">
-        <v>7601</v>
+        <v>7295</v>
       </c>
       <c r="Q175">
-        <v>8509</v>
+        <v>8394</v>
       </c>
       <c r="R175">
         <v>15955</v>
@@ -10791,19 +10794,19 @@
         <v>838</v>
       </c>
       <c r="M176">
-        <v>5694</v>
+        <v>6034</v>
       </c>
       <c r="N176">
-        <v>13281</v>
+        <v>13917</v>
       </c>
       <c r="O176">
-        <v>17297</v>
+        <v>17041</v>
       </c>
       <c r="P176">
-        <v>8738</v>
+        <v>8133</v>
       </c>
       <c r="Q176">
-        <v>8331</v>
+        <v>8216</v>
       </c>
       <c r="R176">
         <v>15589</v>
@@ -10847,22 +10850,78 @@
         <v>2360</v>
       </c>
       <c r="M177">
-        <v>5337</v>
+        <v>6062</v>
       </c>
       <c r="N177">
-        <v>10517</v>
+        <v>10862</v>
       </c>
       <c r="O177">
-        <v>16272</v>
+        <v>15931</v>
       </c>
       <c r="P177">
-        <v>8136</v>
+        <v>7522</v>
       </c>
       <c r="Q177">
-        <v>8223</v>
+        <v>8108</v>
       </c>
       <c r="R177">
         <v>15700</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>-20375</v>
+      </c>
+      <c r="C178">
+        <v>-13892</v>
+      </c>
+      <c r="D178">
+        <v>17783</v>
+      </c>
+      <c r="E178">
+        <v>31675</v>
+      </c>
+      <c r="F178">
+        <v>-6483</v>
+      </c>
+      <c r="G178">
+        <v>4846</v>
+      </c>
+      <c r="H178">
+        <v>11329</v>
+      </c>
+      <c r="I178">
+        <v>65634</v>
+      </c>
+      <c r="J178">
+        <v>49459</v>
+      </c>
+      <c r="K178">
+        <v>343</v>
+      </c>
+      <c r="L178">
+        <v>2388</v>
+      </c>
+      <c r="M178">
+        <v>6355</v>
+      </c>
+      <c r="N178">
+        <v>9356</v>
+      </c>
+      <c r="O178">
+        <v>15008</v>
+      </c>
+      <c r="P178">
+        <v>8072</v>
+      </c>
+      <c r="Q178">
+        <v>7936</v>
+      </c>
+      <c r="R178">
+        <v>16175</v>
       </c>
     </row>
   </sheetData>
